--- a/graph_generation/results/hermes_llama2/level_7/k_1.xlsx
+++ b/graph_generation/results/hermes_llama2/level_7/k_1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="82">
   <si>
     <t>prompt</t>
   </si>
@@ -54,26 +54,26 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 5 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 5 0 0 5 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
- F 0 0 0 0 3 0 1 0 0 4 0 0 0 0 0 0
- G 0 0 4 0 0 0 0 0 0 0 3 0 0 0 0 0
- H 0 0 0 0 0 0 2 0 0 0 0 3 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 2 0 0 2 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
- L 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 1
- P 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+ A 0 3 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 2 0 0 4 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ F 0 2 0 0 0 0 0 0 0 3 0 0 0 0 0 0
+ G 0 0 0 0 0 5 0 4 0 0 0 0 0 0 0 0
+ H 0 0 0 5 0 0 0 0 0 0 0 2 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
+ J 0 0 0 0 0 0 0 0 3 0 0 0 0 4 0 0
+ K 0 0 0 0 0 0 0 0 0 3 0 2 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 1
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ O 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 4
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
@@ -95,27 +95,28 @@
  P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P
  Given these examples, answer the following quesiton.
-What is the least cost path from node A to node O? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O
- A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
- D 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
- E 1 0 0 0 0 3 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
- G 0 0 0 0 0 2 0 2 0 0 0 0 0 0 0
- H 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
- N 0 0 0 0 0 0 0 0 0 0 5 0 0 0 5
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 5 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
+ F 0 3 0 0 0 0 0 0 0 4 0 0 0 0 0 0
+ G 0 0 5 0 0 1 0 0 0 0 4 0 0 0 0 0
+ H 0 0 0 0 0 0 4 0 0 0 0 2 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
+ J 0 0 0 0 0 3 0 0 1 0 1 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 5 0 0 1 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
+ N 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 5
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
@@ -137,27 +138,28 @@
  P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P
  Given these examples, answer the following quesiton.
-What is the least cost path from node A to node O? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O
- A 0 3 0 0 1 0 0 0 0 0 0 0 0 0 0
- B 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 3 0 0 4 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0
- F 0 1 0 0 1 0 0 0 0 5 0 0 0 0 0
- G 0 0 0 0 0 4 0 4 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0
- I 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
- J 0 0 0 0 0 3 0 0 0 0 5 0 5 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 4 0 3 0
- L 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 1 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 4 0 0 4 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 5 0 0 2 0 0 0 0 5 0 0 0 0 0 0
+ G 0 0 0 0 0 3 0 0 0 0 3 0 0 0 0 0
+ H 0 0 0 0 0 0 2 0 0 0 0 3 0 0 0 0
+ I 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 4 0 5 0 0 3 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
+ L 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 2 0 5 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ P 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
@@ -179,23 +181,24 @@
  P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P
  Given these examples, answer the following quesiton.
-What is the least cost path from node A to node O? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O
- A 0 4 0 0 3 0 0 0 0 0 0 0 0 0 0
- B 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 3 0 0 0 0 1 0 0 0 0 0 0 0
- E 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
- F 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
- I 0 0 0 0 4 0 0 0 0 1 0 0 0 0 0
- J 0 0 0 0 0 5 0 0 0 0 0 0 4 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
- L 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+What is the least cost path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 5 0 0 1 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
+ E 4 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 5 0 0 1 0 0 0 0 0 0
+ G 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 3 0 0 0 0 3 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0
+ K 0 0 0 0 0 0 0 0 0 4 0 5 0 0 1 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 5
+ M 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0
+ O 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -223,21 +226,21 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node O? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O
- A 0 3 0 0 3 0 0 0 0 0 0 0 0 0 0
- B 0 0 3 0 0 1 0 0 0 0 0 0 0 0 0
- C 0 0 0 1 0 0 4 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
- E 0 0 0 0 0 3 0 0 5 0 0 0 0 0 0
- F 0 3 0 0 3 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 5 0 5 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
- I 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- J 0 0 0 0 0 4 0 0 0 0 0 0 3 0 0
- K 0 0 0 0 0 0 2 0 0 1 0 4 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
- N 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
+ A 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 4 0 4 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
+ D 1 0 0 0 4 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 2 0 0 4 0 0 0 0 0 0
+ F 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 5 0 0 4 0 0
+ J 0 0 0 0 0 5 0 0 2 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 4 0 0 0 0 5
+ L 0 0 0 0 0 0 0 3 0 0 0 0 4 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ N 0 0 0 0 0 0 0 0 0 3 0 0 0 0 2
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -265,26 +268,26 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- B 5 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 4 0 0 5 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
- G 0 0 4 0 0 0 0 0 0 0 3 0 0 0 0 0
- H 0 0 0 0 0 0 1 0 0 0 0 3 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- J 0 0 0 0 0 3 0 0 5 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 4 0 0 0 0 2 0
- L 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 1
+ A 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 3 0 0 5 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 5 0 0 0 0 0 0 0 0
+ E 4 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
+ F 0 0 0 0 4 0 5 0 0 4 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0
+ H 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 4 0 0 2 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ L 0 0 0 0 0 0 0 5 0 0 1 0 0 0 0 0
  M 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
- N 0 0 0 0 0 0 0 0 0 5 0 0 0 0 1 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+ N 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
+ P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
@@ -306,24 +309,23 @@
  P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P
  Given these examples, answer the following quesiton.
-What is the least cost path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 3 0 0 5 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 2 0 0 5 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- F 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 5 0 0 0 0 1 0 0 0 0 0
- H 0 0 0 0 0 0 3 0 0 0 0 2 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 5 0 0 2 0 0 0
- J 0 0 0 0 0 3 0 0 0 0 0 0 0 1 0 0
- K 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- O 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
+What is the least cost path from node A to node O? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O
+ A 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 5 0 0 2 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ D 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
+ E 1 0 0 0 0 0 0 0 5 0 0 0 0 0 0
+ F 0 0 0 0 5 0 0 0 0 1 0 0 0 0 0
+ G 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
+ H 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
+ K 0 0 0 0 0 0 1 0 0 3 0 0 0 1 0
+ L 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 4 0 5
+ O 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
     </t>
   </si>
   <si>
@@ -351,26 +353,26 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 5 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 2 0 5 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
- F 0 3 0 0 0 0 3 0 0 2 0 0 0 0 0 0
- G 0 0 1 0 0 0 0 0 0 0 4 0 0 0 0 0
- H 0 0 0 0 0 0 3 0 0 0 0 3 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- J 0 0 0 0 0 0 0 0 5 0 0 0 0 4 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 5
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0
+ A 0 3 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 3 0 0 1 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ F 0 2 0 0 5 0 2 0 0 0 0 0 0 0 0 0
+ G 0 0 4 0 0 0 0 2 0 0 3 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 4 0 0 2 0 0 0
+ J 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 4 0 0 0 0 0 0 0 2 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
  O 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 3
  P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
@@ -392,24 +394,23 @@
  P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P
  Given these examples, answer the following quesiton.
-What is the least cost path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 4 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 5 0 0 3 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 4 0 0 4 0 0 0 0 0 0 0
- F 0 1 0 0 0 0 0 0 0 5 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
- J 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 5 0 0 0 0 4 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+What is the least cost path from node A to node O? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O
+ A 0 5 0 4 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 4 0 0 5 0 0 0 0 0 0 0
+ E 0 5 0 0 0 0 0 0 5 0 0 0 0 0 0
+ F 0 0 0 0 2 0 5 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
+ I 0 0 0 0 1 0 0 2 0 1 0 0 0 0 0
+ J 0 0 0 0 0 4 0 0 2 0 1 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4
+ L 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
+ M 0 0 0 0 0 0 0 0 1 0 0 0 0 5 0
+ N 0 0 0 0 0 0 0 0 0 1 0 0 0 0 5
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -437,62 +438,62 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 4 0 0 1 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
+ A 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ B 4 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
  D 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
- E 2 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
- F 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 1 0 0 5 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 3 0 0 0 0 1 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 4 0 0 2 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 5 0 0 4 0 0
- K 0 0 0 0 0 0 3 0 0 0 0 4 0 0 3 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
- O 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2
+ E 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
+ F 0 5 0 0 1 0 3 0 0 0 0 0 0 0 0 0
+ G 0 0 5 0 0 0 0 0 0 0 3 0 0 0 0 0
+ H 0 0 0 0 0 0 2 0 0 0 0 2 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ J 0 0 0 0 0 4 0 0 1 0 5 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 3 0 0 2 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
+ N 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
  P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
-    <t>A -&gt; B -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; C -&gt; G -&gt; F -&gt; J -&gt; M -&gt; N -&gt; O</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; O</t>
-  </si>
-  <si>
-    <t>A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; K -&gt; N -&gt; O</t>
-  </si>
-  <si>
-    <t>A -&gt; E -&gt; I -&gt; M -&gt; N -&gt; O -&gt; P</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P</t>
-  </si>
-  <si>
-    <t>A -&gt; E -&gt; F -&gt; J -&gt; N -&gt; O -&gt; P</t>
-  </si>
-  <si>
     <t>A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; L -&gt; P</t>
   </si>
   <si>
+    <t>A -&gt; E -&gt; F -&gt; J -&gt; K -&gt; O -&gt; P</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; C -&gt; G -&gt; K -&gt; O -&gt; P</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; F -&gt; J -&gt; N -&gt; O -&gt; P</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; E -&gt; I -&gt; M -&gt; N -&gt; O</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; L -&gt; K -&gt; N -&gt; O</t>
+  </si>
+  <si>
+    <t>A -&gt; D -&gt; E -&gt; I -&gt; J -&gt; K -&gt; O</t>
+  </si>
+  <si>
+    <t>A -&gt; E -&gt; I -&gt; M -&gt; N -&gt; J -&gt; K -&gt; O -&gt; P</t>
+  </si>
+  <si>
     <t>The least cost path from node A to node P is A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; P. The sequence of nodes is A, B, C, D, H, L, and P.</t>
   </si>
   <si>
-    <t>The least cost path from node A to node O is A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; O.</t>
-  </si>
-  <si>
-    <t>The least cost path from node A to node O is A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; M -&gt; N -&gt; O. The sequence of nodes is A, B, C, D, H, L, M, N, and O. The total cost of this path is 2 + 4 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 = 10.</t>
+    <t>The least cost path from node A to node O is A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; M -&gt; N -&gt; O. The sequence of nodes is A, B, C, D, H, L, M, N, and O. The total cost of this path is 2 + 4 + 0 + 4 + 0 + 0 + 1 + 3 + 2 = 17.</t>
+  </si>
+  <si>
+    <t>The least cost path from node A to node O is A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; N -&gt; O. The sequence of nodes is A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; N -&gt; O.</t>
+  </si>
+  <si>
+    <t>The least cost path from node A to node O is A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; M -&gt; N -&gt; O. The sequence of nodes is A, B, C, D, H, L, M, N, and O. The total cost of this path is 2 + 5 + 3 + 4 + 0 + 0 + 5 + 5 = 25.</t>
   </si>
   <si>
     <t>Wrong</t>
-  </si>
-  <si>
-    <t>Correct</t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
@@ -528,31 +529,31 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 4 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 2 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 2 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 5 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 3 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 5 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 2 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 3 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 3 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
+ A 0 3 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 4 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 1 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 1 0 0 0 0 0 1 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 2 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 3 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 2 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 4 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 2
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 1 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 5
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -589,35 +590,35 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 3 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 2 0 0 0 4 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 4 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 3 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 2 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 5
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 5 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 2
+ A 0 4 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 2 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 1 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 3 0 0 0 2 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 1 0 0 0 4 0 0 0 0 0 4 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 1 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 2 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 2 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 3 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 1 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 3 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 3 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 3
  Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 23 nodes labelled A to W. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
@@ -648,37 +649,35 @@
  Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
 Solution: A -&gt; B -&gt; G -&gt; H -&gt; I -&gt; J -&gt; O -&gt; T -&gt; Y
  Given these examples, answer the following quesiton.
-What is the least cost path from node A to node Y? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 5 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 2 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 4 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 2 0 0 0 5 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 2 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 4 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 3 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 5 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 5 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 22 nodes labelled A to V. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path from node A to node W? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W
+ A 0 5 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 5 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 1 0 0 0 4 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 1 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 4 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 5 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 4 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 3 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 3 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 4 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 5 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 5
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
@@ -709,30 +708,33 @@
  Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
 Solution: A -&gt; B -&gt; G -&gt; H -&gt; I -&gt; J -&gt; O -&gt; T -&gt; Y
  Given these examples, answer the following quesiton.
-What is the least cost path from node A to node V? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V
- A 0 2 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 3 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 2 0 3 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 1 0 0 0 5 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
- J 0 0 0 0 2 0 0 0 5 0 0 0 0 0 3 0 0 0 0 0 0 0
- K 0 0 0 0 0 5 0 0 0 5 0 2 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0
- M 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 4 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 5
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 5
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+What is the least cost path from node A to node Y? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 2 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 2 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 4 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 3 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 3 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 5 0 0 0 1 0 4 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 3 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 4 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 1 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 3 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 5 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 5 0 4
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -769,35 +771,35 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 4 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 2 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 4 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 5 0 0 0 3 0 5 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 5 0 0 0 3 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 3 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 3 0 0 0 1 0 5 0 0 0 3 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 3 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 3 0 0 0 1 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 5 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 5 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 3
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 4 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+ A 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 4 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 3 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 1 0 0 0 3 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 4 0 0 0 3 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 2 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 5 0 0 0 2 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 4 0 0 0 0 0 2 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 1 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 4
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 22 nodes labelled A to V. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
@@ -828,37 +830,34 @@
  Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
 Solution: A -&gt; B -&gt; G -&gt; H -&gt; I -&gt; J -&gt; O -&gt; T -&gt; Y
  Given these examples, answer the following quesiton.
-What is the least cost path from node A to node Y? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 4 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 1 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 1 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 1 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 2 0 0 0 0 0 1 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 3 0 0 0 0 0 5 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 5 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 2 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 1 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 5 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 5
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 3 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 3
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path from node A to node V? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 3 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 4 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 3 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 5 0 0 0 0 0 2 0 0 3 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 3 0 0 0 3 0 0 0 0 5 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 5 0 0 0 1 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 4 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 1
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 22 nodes labelled A to V. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
@@ -889,33 +888,30 @@
  Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
 Solution: A -&gt; B -&gt; G -&gt; H -&gt; I -&gt; J -&gt; O -&gt; T -&gt; Y
  Given these examples, answer the following quesiton.
-What is the least cost path from node A to node Y? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 5 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 5 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 3 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 4 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 2 0 0 0 2 0 2 0 0 0 5 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 5 0 0 0 2 0 3 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 3 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 4 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 1 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 1 0 0 0 3 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 3 0 0 0 0 0 4 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 1
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 4 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+What is the least cost path from node A to node V? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V
+ A 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 2 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ G 0 4 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 3 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 1 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 2 0 0 0 0 0 3 0 0 1 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 2 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 4 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 3 0 4 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -952,35 +948,35 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 3 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 3 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 5 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 2 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 5 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 3 0 5 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 3 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 5 0 1 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
+ A 0 1 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 5 0 2 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 3 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 4 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 1 0 0 0 1 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 5 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 5 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 1 0 0 0 0 0 3
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 5 0 0
  W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 5
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 20 nodes labelled A to T. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
@@ -1011,33 +1007,28 @@
  Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
 Solution: A -&gt; B -&gt; G -&gt; H -&gt; I -&gt; J -&gt; O -&gt; T -&gt; Y
  Given these examples, answer the following quesiton.
-What is the least cost path from node A to node Y? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 3 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 1 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 3 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 5 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 1 0 0 0 3 0 3 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 4 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 4 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 2 0 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 3 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 3
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
+What is the least cost path from node A to node T? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T
+ A 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 2 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 5 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 4 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 0 0 0 0 3 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 4 0 0 2 0 0 0 0 0 0
+ K 0 0 0 0 0 5 0 0 0 0 0 3 0 0 3 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 5 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
     </t>
   </si>
   <si>
@@ -1074,62 +1065,80 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 5 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 4 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 2 0 0 0 1 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 4 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 3 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 5 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 1 0 0 0 0 0 4 0 0 0 1 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ A 0 3 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 5 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 3 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 2 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 3 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 5 0 0 0 3 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 3 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
  P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 2 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 1 0 0 0 0 0 1 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 3 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t>A -&gt; F -&gt; K -&gt; L -&gt; M -&gt; N -&gt; S -&gt; X -&gt; Y</t>
-  </si>
-  <si>
-    <t>A -&gt; F -&gt; K -&gt; P -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; X -&gt; Y</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; C -&gt; D -&gt; I -&gt; J -&gt; O -&gt; N -&gt; S -&gt; X -&gt; Y</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; E -&gt; F -&gt; G -&gt; L -&gt; Q -&gt; U -&gt; V</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; J -&gt; O -&gt; T -&gt; Y</t>
-  </si>
-  <si>
-    <t>A -&gt; F -&gt; K -&gt; P -&gt; U -&gt; V -&gt; W -&gt; X -&gt; Y</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; C -&gt; H -&gt; G -&gt; L -&gt; Q -&gt; V -&gt; W -&gt; X -&gt; Y</t>
+ Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 4 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 3 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 5 0 1 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 3
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 4 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 1
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t>A -&gt; F -&gt; G -&gt; L -&gt; K -&gt; P -&gt; U -&gt; V -&gt; W -&gt; X -&gt; Y</t>
+  </si>
+  <si>
+    <t>A -&gt; F -&gt; G -&gt; H -&gt; M -&gt; R -&gt; S -&gt; T -&gt; Y</t>
+  </si>
+  <si>
+    <t>A -&gt; F -&gt; K -&gt; L -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; W</t>
+  </si>
+  <si>
+    <t>A -&gt; F -&gt; K -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T -&gt; Y</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; C -&gt; H -&gt; G -&gt; L -&gt; M -&gt; N -&gt; O -&gt; T -&gt; S -&gt; X -&gt; Y</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; G -&gt; F -&gt; K -&gt; L -&gt; P -&gt; Q -&gt; T -&gt; U -&gt; V</t>
+  </si>
+  <si>
+    <t>A -&gt; F -&gt; K -&gt; L -&gt; M -&gt; Q -&gt; R -&gt; S -&gt; V</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; G -&gt; H -&gt; I -&gt; N -&gt; S -&gt; X -&gt; Y</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; E -&gt; J -&gt; K -&gt; L -&gt; M -&gt; Q -&gt; P -&gt; S -&gt; T</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; C -&gt; H -&gt; M -&gt; R -&gt; W -&gt; X -&gt; Y</t>
   </si>
   <si>
     <t>The least cost path from node A to node Y is A -&gt; B -&gt; G -&gt; H -&gt; I -&gt; J -&gt; O -&gt; T -&gt; Y.</t>
   </si>
   <si>
+    <t>The least cost path from node A to node W is A -&gt; B -&gt; G -&gt; H -&gt; I -&gt; J -&gt; O -&gt; T -&gt; W.</t>
+  </si>
+  <si>
     <t>The least cost path from node A to node V is A -&gt; B -&gt; G -&gt; H -&gt; I -&gt; J -&gt; O -&gt; T -&gt; V.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 24 nodes labelled A to X. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t>The least cost path from node A to node V is A -&gt; B -&gt; G -&gt; H -&gt; I -&gt; J -&gt; O -&gt; T -&gt; Y.</t>
+  </si>
+  <si>
+    <t>The least cost path from node A to node T is A -&gt; B -&gt; G -&gt; H -&gt; I -&gt; J -&gt; O -&gt; T -&gt; Y.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node I to node K? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
@@ -1160,32 +1169,33 @@
  Y 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: I -&gt; Y -&gt; A -&gt; V -&gt; H -&gt; G -&gt; S -&gt; T -&gt; J -&gt; P -&gt; R -&gt; F -&gt; B -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; K
  Given these examples, answer the following quesiton.
-What is the least cost path from node N to node A? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X
- A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
- C 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 3 0 0 0 0
- D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 2 0 0
- E 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 5 0 0 0 0 0 0
- F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 5 0 0
- G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
- J 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 3 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
- M 4 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 5 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
- P 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 3 0 0 0 0 0 1
- Q 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
- R 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
- S 4 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 4
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 2 0 0 0 0 0 0 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
- X 0 0 0 0 0 0 0 4 0 0 5 0 0 0 0 1 0 0 0 0 0 0 0 0
+What is the least cost path from node O to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 4 0 0 0
+ D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 2 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ F 0 1 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
+ H 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 2 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 5 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 2 0
+ T 0 0 0 3 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 3 0 0 0 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0
+ W 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
+ X 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
@@ -1220,33 +1230,33 @@
  Y 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: I -&gt; Y -&gt; A -&gt; V -&gt; H -&gt; G -&gt; S -&gt; T -&gt; J -&gt; P -&gt; R -&gt; F -&gt; B -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; K
  Given these examples, answer the following quesiton.
-What is the least cost path from node V to node Y? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 5 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 5 0 0 0
- E 0 5 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 4 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- I 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- J 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 3 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 5
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 4 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 4 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- Q 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- S 0 3 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
- T 3 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 2 0 2 0 0 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
- W 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
- X 4 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+What is the least cost path from node W to node D? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0
+ B 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 3 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 1
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0
+ M 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
+ N 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 3 0 0 0 0 0 0 0 0 0
+ O 0 2 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
+ Q 0 0 0 0 0 0 0 0 2 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ S 0 0 3 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ T 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
+ X 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Y 0 0 2 0 0 4 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -1281,37 +1291,37 @@
  Y 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: I -&gt; Y -&gt; A -&gt; V -&gt; H -&gt; G -&gt; S -&gt; T -&gt; J -&gt; P -&gt; R -&gt; F -&gt; B -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; K
  Given these examples, answer the following quesiton.
-What is the least cost path from node T to node N? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 2 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
- E 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 4 0 0 0 0 0 0 0
- H 0 3 0 0 0 4 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 1 0 0 0 0 3 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0
- J 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0
- L 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 3 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 2 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
- Q 0 3 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- S 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 4 0 0 0
- T 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- W 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- X 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- Y 0 0 0 0 0 0 0 4 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path from node F to node X? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3
+ C 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 3 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
+ G 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 1 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ K 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 3 0 4 0 0 0 0 0 0 0 0 3 0 0 0
+ M 0 0 0 0 0 0 0 0 0 3 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 1 0
+ O 0 0 0 0 0 0 3 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 2 0 0 0 0 0 0
+ Q 5 0 0 5 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ R 4 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
+ U 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 2 0 0 0 0 0 0
+ W 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 2 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 24 nodes labelled A to X. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node I to node K? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
@@ -1342,33 +1352,32 @@
  Y 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: I -&gt; Y -&gt; A -&gt; V -&gt; H -&gt; G -&gt; S -&gt; T -&gt; J -&gt; P -&gt; R -&gt; F -&gt; B -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; K
  Given these examples, answer the following quesiton.
-What is the least cost path from node Y to node D? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
- C 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
- F 2 0 0 0 0 0 0 0 0 2 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 4 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 4 0 0 0 0 0 0 0 0 0
- K 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- M 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 3 0 0 0 0
- P 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0
- Q 0 0 0 0 5 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- R 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0
- T 0 0 0 0 0 0 4 0 0 0 0 0 0 2 0 0 5 0 0 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
- W 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
- X 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
- Y 0 0 0 0 0 0 0 2 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+What is the least cost path from node S to node M? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
+ B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0
+ D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 3
+ E 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 2 0 5 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 5 0
+ J 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 3 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0 5 0 0
+ P 0 4 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
+ R 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
+ S 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 2 0 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0
+ V 0 0 0 0 5 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
+ X 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 2 0 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -1403,37 +1412,37 @@
  Y 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: I -&gt; Y -&gt; A -&gt; V -&gt; H -&gt; G -&gt; S -&gt; T -&gt; J -&gt; P -&gt; R -&gt; F -&gt; B -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; K
  Given these examples, answer the following quesiton.
-What is the least cost path from node B to node W? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 5 0 0
- E 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 3
- J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
- K 0 0 0 0 0 0 4 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0
- N 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
- P 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 3 4 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 5 0 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 1 0 0 5 0 0 0 0 0 0 0 0 0 0 0
- T 4 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- V 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 5 2 0 0 0 0 0 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- X 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 23 nodes labelled A to W. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path from node U to node O? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 4 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 3 0 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 3
+ F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 1 0
+ G 0 0 5 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 1 0
+ I 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 5 0 0 0 0 0
+ J 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0
+ K 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0
+ M 0 0 3 0 0 0 0 0 2 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ N 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
+ R 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 4 0 0 0 0 0
+ S 0 0 0 0 0 0 4 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 3 0 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
+ V 0 0 0 0 0 0 0 4 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0
+ X 0 0 4 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Y 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 24 nodes labelled A to X. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node I to node K? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
@@ -1464,31 +1473,32 @@
  Y 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: I -&gt; Y -&gt; A -&gt; V -&gt; H -&gt; G -&gt; S -&gt; T -&gt; J -&gt; P -&gt; R -&gt; F -&gt; B -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; K
  Given these examples, answer the following quesiton.
-What is the least cost path from node K to node G? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W
- A 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 4
- C 0 0 0 0 0 0 0 0 0 0 0 0 2 0 4 0 0 0 0 0 0 0 2
- D 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 1 0 0 0 0 0 0
- E 0 2 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 0 0 0 4 0 0 0 0 1 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- I 0 0 0 0 2 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
- L 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 5 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 5 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0
- Q 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- R 0 0 0 3 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
- T 0 0 0 0 3 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- V 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- W 0 0 2 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
+What is the least cost path from node E to node Q? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X
+ A 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 5 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 1 0
+ G 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 3 0 0 0 0 0 0 0 0 0 0 5 0 0 1 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 5 0 0 0 0
+ K 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 4
+ N 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 2 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 2 0 0 5 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 3 0 2 0 0 0 0 0 0 0 0 0 0
+ V 0 0 0 0 0 0 0 0 4 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ W 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ X 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -1523,37 +1533,37 @@
  Y 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: I -&gt; Y -&gt; A -&gt; V -&gt; H -&gt; G -&gt; S -&gt; T -&gt; J -&gt; P -&gt; R -&gt; F -&gt; B -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; K
  Given these examples, answer the following quesiton.
-What is the least cost path from node E to node G? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 5 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 2 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- F 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 4 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 2 0 0
- N 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- O 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- P 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 5 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 4 0 5 0 0 0 0 0 0 0 0 0 0
- R 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- S 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 4 0 0 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 3 0 0 0 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
- X 0 0 0 5 0 3 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- Y 0 0 0 0 0 0 0 0 0 0 0 0 2 0 3 0 0 0 0 3 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path from node E to node S? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
+ B 0 0 0 3 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 2 0 0 0 0
+ E 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 3 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0
+ K 0 0 4 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 3 0
+ L 0 0 0 0 0 0 0 0 2 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 3 0
+ P 0 0 0 0 0 0 0 0 0 0 4 0 0 0 3 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 4 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ R 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ T 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0
+ U 0 0 0 3 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ V 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ W 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ X 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 3 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 24 nodes labelled A to X. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node I to node K? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
@@ -1584,33 +1594,32 @@
  Y 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: I -&gt; Y -&gt; A -&gt; V -&gt; H -&gt; G -&gt; S -&gt; T -&gt; J -&gt; P -&gt; R -&gt; F -&gt; B -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; K
  Given these examples, answer the following quesiton.
-What is the least cost path from node S to node B? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 5 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 4 0 0
- F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
- G 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 3 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
- J 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0
- K 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
- M 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 5
- N 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
- P 0 0 0 0 4 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
- R 1 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- T 0 0 3 0 0 0 0 0 0 0 0 0 0 0 4 0 3 0 0 0 0 0 0 0 0
- U 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 4 0 3 0 0 0 0 0 0 0 0 0 0
- X 0 0 0 0 0 4 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
+What is the least cost path from node F to node J? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X
+ A 0 0 0 0 0 0 0 2 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 5 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 3 0 0 0 0 0 0 0 0 5 0 0 5 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0
+ G 0 0 0 0 0 0 0 2 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 2 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
+ L 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
+ N 0 3 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ O 0 2 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0
+ S 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ T 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0
+ U 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ V 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0
+ X 0 0 0 0 0 0 0 0 2 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -1645,37 +1654,37 @@
  Y 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: I -&gt; Y -&gt; A -&gt; V -&gt; H -&gt; G -&gt; S -&gt; T -&gt; J -&gt; P -&gt; R -&gt; F -&gt; B -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; K
  Given these examples, answer the following quesiton.
-What is the least cost path from node R to node X? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3
- C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
- D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0
- F 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 5 0 0 0 0 2 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 3 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 2 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- M 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
- O 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 3 2 0 0 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 4 0 0 0 0 0 0
- S 0 0 0 0 0 4 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 2 2 0 0 0 0 0 0 0 0 0 0
- U 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- V 0 0 0 0 0 2 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- W 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- Y 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path from node W to node X? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ B 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 1
+ G 0 0 0 0 0 0 0 4 0 0 0 0 0 0 5 0 3 0 0 0 0 0 0 0 0
+ H 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 5 0 0 0 0
+ K 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 1 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ P 2 0 0 0 3 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 5
+ S 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ T 0 0 0 0 2 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ V 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ W 0 1 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 24 nodes labelled A to X. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node I to node K? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
@@ -1706,95 +1715,96 @@
  Y 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: I -&gt; Y -&gt; A -&gt; V -&gt; H -&gt; G -&gt; S -&gt; T -&gt; J -&gt; P -&gt; R -&gt; F -&gt; B -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; K
  Given these examples, answer the following quesiton.
-What is the least cost path from node M to node W? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
- D 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 3 0 0 0 0
- E 0 0 0 0 0 4 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
- G 0 0 0 0 0 0 0 5 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- J 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 3 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 5 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 1
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 1 0 0 0 0 0
- P 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- Q 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
- R 0 0 3 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- S 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
- V 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
- X 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
- Y 5 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t>N -&gt; G -&gt; F -&gt; V -&gt; P -&gt; I -&gt; W -&gt; S -&gt; A</t>
-  </si>
-  <si>
-    <t>V -&gt; W -&gt; J -&gt; P -&gt; R -&gt; F -&gt; E -&gt; I -&gt; Y</t>
-  </si>
-  <si>
-    <t>T -&gt; W -&gt; A -&gt; C -&gt; S -&gt; Q -&gt; B -&gt; M -&gt; N</t>
-  </si>
-  <si>
-    <t>Y -&gt; H -&gt; M -&gt; J -&gt; P -&gt; O -&gt; T -&gt; N -&gt; D</t>
-  </si>
-  <si>
-    <t>B -&gt; M -&gt; S -&gt; K -&gt; G -&gt; E -&gt; C -&gt; V -&gt; Q -&gt; O -&gt; W</t>
-  </si>
-  <si>
-    <t>K -&gt; R -&gt; F -&gt; O -&gt; S -&gt; M -&gt; H -&gt; V -&gt; G</t>
-  </si>
-  <si>
-    <t>E -&gt; N -&gt; X -&gt; D -&gt; I -&gt; L -&gt; Y -&gt; T -&gt; G</t>
-  </si>
-  <si>
-    <t>S -&gt; Y -&gt; V -&gt; R -&gt; A -&gt; G -&gt; C -&gt; L -&gt; B</t>
-  </si>
-  <si>
-    <t>R -&gt; S -&gt; F -&gt; V -&gt; K -&gt; M -&gt; T -&gt; O -&gt; X</t>
-  </si>
-  <si>
-    <t>M -&gt; S -&gt; Q -&gt; A -&gt; O -&gt; P -&gt; H -&gt; V -&gt; K -&gt; F -&gt; W</t>
-  </si>
-  <si>
-    <t>The least cost path from node N to node A is N -&gt; W -&gt; K -&gt; I -&gt; Y -&gt; A. The sequence of nodes is N -&gt; W -&gt; K -&gt; I -&gt; Y -&gt; A.</t>
-  </si>
-  <si>
-    <t>The least cost path from node V to node Y is V -&gt; H -&gt; G -&gt; S -&gt; T -&gt; J -&gt; P -&gt; R -&gt; F -&gt; B -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; K. The sequence of nodes is V, H, G, S, T, J, P, R, F, B, L, O, X, N, W, K.</t>
-  </si>
-  <si>
-    <t>The least cost path from node T to node N is T -&gt; P -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; K. The sequence of nodes is T -&gt; P -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; K.</t>
-  </si>
-  <si>
-    <t>The least cost path from node Y to node D is Y -&gt; A -&gt; V -&gt; H -&gt; G -&gt; S -&gt; T -&gt; J -&gt; P -&gt; R -&gt; F -&gt; B -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; K. The sequence of nodes is Y, A, V, H, G, S, T, J, P, R, F, B, L, O, X, N, W, K.</t>
-  </si>
-  <si>
-    <t>The least cost path from node B to node W is B -&gt; I -&gt; Y -&gt; A -&gt; V -&gt; H -&gt; G -&gt; S -&gt; T -&gt; J -&gt; P -&gt; R -&gt; F -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; K. The sequence of nodes is B, I, Y, A, V, H, G, S, T, J, P, R, F, L, O, X, N, W, K.</t>
-  </si>
-  <si>
-    <t>The least cost path from node K to node G is K -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; Y -&gt; A -&gt; V -&gt; H -&gt; G -&gt; S -&gt; T -&gt; J -&gt; P -&gt; R -&gt; F -&gt; B -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; Y -&gt; A -&gt; V -&gt; H -&gt; G -&gt; S -&gt; T -&gt; J -&gt; P -&gt; R -&gt; F -&gt; B -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; Y -&gt; A -&gt; V -&gt; H -&gt; G -&gt; S -&gt; T -&gt; J -&gt; P -&gt; R -&gt; F -&gt; B -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; Y -&gt; A -&gt; V -&gt; H -&gt; G -&gt; S -&gt; T -&gt; J -&gt; P -&gt; R -&gt; F -&gt; B -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; Y -&gt; A -&gt; V -&gt; H -&gt; G -&gt; S -&gt; T -&gt; J -&gt; P -&gt; R -&gt; F -&gt; B -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; Y -&gt; A -&gt; V -&gt; H -&gt; G -&gt; S -&gt; T -&gt; J -&gt; P -&gt; R -&gt; F -&gt; B -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; Y -&gt; A -&gt; V -&gt; H -&gt; G -&gt; S -&gt; T -&gt; J -&gt; P -&gt; R -&gt; F -&gt; B -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; Y -&gt; A -&gt; V -&gt; H -&gt; G -&gt; S -&gt; T -&gt; J -&gt; P -&gt; R -&gt; F -&gt; B -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; Y -&gt; A -&gt; V -&gt; H -&gt; G -&gt; S -&gt; T -&gt; J -&gt; P -&gt; R -&gt; F -&gt; B -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; Y -&gt; A -&gt; V -&gt; H -&gt; G -&gt; S -&gt; T -&gt; J -&gt; P -&gt; R -&gt; F -&gt; B -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; Y -&gt; A -&gt; V -&gt; H -&gt; G -&gt; S -&gt; T -&gt; J -&gt; P -&gt; R -&gt; F -&gt; B -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; Y -&gt; A -&gt; V -&gt; H -&gt; G -&gt; S -&gt; T -&gt; J -&gt; P -&gt; R -&gt; F -&gt; B -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; Y -&gt; A -&gt; V -&gt; H -&gt; G -&gt; S -&gt; T -&gt; J -&gt; P -&gt; R -&gt; F -&gt; B -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; Y -&gt; A -&gt; V -&gt; H -&gt; G -&gt; S -&gt; T -&gt; J -&gt; P -&gt; R -&gt; F -&gt; B -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; Y -&gt; A -&gt; V -&gt; H -&gt; G -&gt; S -&gt; T</t>
-  </si>
-  <si>
-    <t>The least cost path from node E to node G is E -&gt; I -&gt; Y -&gt; A -&gt; V -&gt; H -&gt; G. The sequence of nodes is E -&gt; I -&gt; Y -&gt; A -&gt; V -&gt; H -&gt; G.</t>
-  </si>
-  <si>
-    <t>The least cost path from node S to node B is S -&gt; T -&gt; R -&gt; I -&gt; Y -&gt; A -&gt; V -&gt; H -&gt; G -&gt; S -&gt; T -&gt; J -&gt; P -&gt; R -&gt; F -&gt; B -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; K.
-The sequence of nodes is: S -&gt; T -&gt; R -&gt; I -&gt; Y -&gt; A -&gt; V -&gt; H -&gt; G -&gt; S -&gt; T -&gt; J -&gt; P -&gt; R -&gt; F -&gt; B -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; K.</t>
-  </si>
-  <si>
-    <t>The least cost path from node R to node X is R -&gt; S -&gt; T -&gt; Y -&gt; X. The sequence of nodes is R, S, T, and Y. The total cost is 4 + 5 + 0 + 0 = 9.</t>
-  </si>
-  <si>
-    <t>The least cost path from node M to node W is M -&gt; S -&gt; T -&gt; R -&gt; V -&gt; W. The sequence of nodes is M, S, T, R, V, and W.</t>
+What is the least cost path from node Q to node R? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0
+ B 0 0 0 0 0 0 0 0 0 0 0 0 0 3 3 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 2 0
+ D 0 0 0 0 5 5 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 2 0 0 3 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 1 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 1 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 1 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0
+ O 0 0 0 0 3 4 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 4
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 2 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 5 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 3 0 0
+    </t>
+  </si>
+  <si>
+    <t>O -&gt; C -&gt; R -&gt; M -&gt; N -&gt; G -&gt; W -&gt; Y -&gt; P</t>
+  </si>
+  <si>
+    <t>W -&gt; Q -&gt; I -&gt; M -&gt; H -&gt; A -&gt; S -&gt; C -&gt; D</t>
+  </si>
+  <si>
+    <t>F -&gt; I -&gt; U -&gt; E -&gt; Q -&gt; O -&gt; G -&gt; J -&gt; X</t>
+  </si>
+  <si>
+    <t>S -&gt; Q -&gt; P -&gt; D -&gt; T -&gt; K -&gt; A -&gt; U -&gt; M</t>
+  </si>
+  <si>
+    <t>U -&gt; R -&gt; L -&gt; S -&gt; G -&gt; I -&gt; M -&gt; K -&gt; X -&gt; H -&gt; O</t>
+  </si>
+  <si>
+    <t>E -&gt; F -&gt; W -&gt; U -&gt; N -&gt; V -&gt; I -&gt; O -&gt; M -&gt; X -&gt; B -&gt; J -&gt; Q</t>
+  </si>
+  <si>
+    <t>E -&gt; A -&gt; C -&gt; Q -&gt; M -&gt; G -&gt; P -&gt; O -&gt; L -&gt; J -&gt; S</t>
+  </si>
+  <si>
+    <t>F -&gt; T -&gt; C -&gt; N -&gt; B -&gt; O -&gt; K -&gt; G -&gt; J</t>
+  </si>
+  <si>
+    <t>W -&gt; B -&gt; G -&gt; Q -&gt; U -&gt; I -&gt; P -&gt; A -&gt; X</t>
+  </si>
+  <si>
+    <t>Q -&gt; W -&gt; V -&gt; M -&gt; K -&gt; D -&gt; L -&gt; A -&gt; R</t>
+  </si>
+  <si>
+    <t>The least cost path from node O to node P is O -&gt; Y -&gt; A -&gt; V -&gt; H -&gt; G -&gt; S -&gt; T -&gt; J -&gt; P -&gt; R -&gt; F -&gt; B -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; K. The sequence of nodes is O -&gt; Y -&gt; A -&gt; V -&gt; H -&gt; G -&gt; S -&gt; T -&gt; J -&gt; P -&gt; R -&gt; F -&gt; B -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; K.</t>
+  </si>
+  <si>
+    <t>The least cost path from node W to node D is W -&gt; I -&gt; Y -&gt; A -&gt; V -&gt; H -&gt; G -&gt; S -&gt; T -&gt; J -&gt; P -&gt; R -&gt; F -&gt; B -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; K. The sequence of nodes is W -&gt; I -&gt; Y -&gt; A -&gt; V -&gt; H -&gt; G -&gt; S -&gt; T -&gt; J -&gt; P -&gt; R -&gt; F -&gt; B -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; K.</t>
+  </si>
+  <si>
+    <t>The least cost path from node F to node X is F -&gt; I -&gt; Y -&gt; A -&gt; V -&gt; H -&gt; G -&gt; S -&gt; T -&gt; J -&gt; P -&gt; R -&gt; B -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; K. The sequence of nodes is F -&gt; I -&gt; Y -&gt; A -&gt; V -&gt; H -&gt; G -&gt; S -&gt; T -&gt; J -&gt; P -&gt; R -&gt; B -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; K.</t>
+  </si>
+  <si>
+    <t>The least cost path from node S to node M is S -&gt; T -&gt; R -&gt; F -&gt; B -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; K. The sequence of nodes is S -&gt; T -&gt; R -&gt; F -&gt; B -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; K.</t>
+  </si>
+  <si>
+    <t>The least cost path from node U to node O is U -&gt; T -&gt; P -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; K -&gt; Y -&gt; A -&gt; V -&gt; H -&gt; G -&gt; S -&gt; T -&gt; J -&gt; P -&gt; R -&gt; F -&gt; B -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; K.
+The sequence of nodes is: U, T, P, L, O, X, N, W, K, Y, A, V, H, G, S, T, J, P, R, F, B, L, O, X, N, W, K.</t>
+  </si>
+  <si>
+    <t>The least cost path from node E to node Q is E -&gt; I -&gt; Y -&gt; A -&gt; V -&gt; H -&gt; G -&gt; S -&gt; T -&gt; J -&gt; P -&gt; R -&gt; F -&gt; B -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; K -&gt; Q. The sequence of nodes is E -&gt; I -&gt; Y -&gt; A -&gt; V -&gt; H -&gt; G -&gt; S -&gt; T -&gt; J -&gt; P -&gt; R -&gt; F -&gt; B -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; K -&gt; Q.</t>
+  </si>
+  <si>
+    <t>The least cost path from node E to node S is E -&gt; G -&gt; H -&gt; I -&gt; Y -&gt; A -&gt; V -&gt; H -&gt; G -&gt; S -&gt; T -&gt; J -&gt; P -&gt; R -&gt; F -&gt; B -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; K. The sequence of nodes is EGHYAVHGSTJPRFBLONXNWK.</t>
+  </si>
+  <si>
+    <t>The least cost path from node F to node J is F -&gt; G -&gt; H -&gt; I -&gt; Y -&gt; A -&gt; V -&gt; H -&gt; G -&gt; S -&gt; T -&gt; J -&gt; P -&gt; R -&gt; F -&gt; B -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; K.
+The sequence of nodes is: F, G, H, I, Y, A, V, H, G, S, T, J, P, R, F, B, L, O, X, N, W, K.</t>
+  </si>
+  <si>
+    <t>The least cost path from node W to node X is W -&gt; Y -&gt; A -&gt; V -&gt; H -&gt; G -&gt; S -&gt; T -&gt; J -&gt; P -&gt; R -&gt; F -&gt; B -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; K. The sequence of nodes is W -&gt; Y -&gt; A -&gt; V -&gt; H -&gt; G -&gt; S -&gt; T -&gt; J -&gt; P -&gt; R -&gt; F -&gt; B -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; K.</t>
+  </si>
+  <si>
+    <t>The least cost path from node Q to node R is Q -&gt; S -&gt; T -&gt; I -&gt; Y -&gt; A -&gt; V -&gt; H -&gt; G -&gt; S -&gt; T -&gt; J -&gt; P -&gt; R -&gt; F -&gt; B -&gt; L -&gt; O -&gt; X -&gt; N -&gt; W -&gt; K.
+The sequence of nodes is: Q, S, T, I, Y, A, V, H, G, S, T, J, P, R, F, B, L, O, X, N, W, K.</t>
   </si>
 </sst>
 </file>
@@ -2183,7 +2193,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2194,10 +2204,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2208,7 +2218,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -2222,10 +2232,10 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2233,7 +2243,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
@@ -2247,13 +2257,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2264,7 +2274,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
@@ -2275,13 +2285,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2289,13 +2299,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2303,7 +2313,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -2347,10 +2357,10 @@
         <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2361,10 +2371,10 @@
         <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2375,10 +2385,10 @@
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2389,10 +2399,10 @@
         <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2403,10 +2413,10 @@
         <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2417,10 +2427,10 @@
         <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2428,13 +2438,13 @@
         <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2442,13 +2452,13 @@
         <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2456,13 +2466,13 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2470,13 +2480,13 @@
         <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2508,142 +2518,142 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
